--- a/day1/excel_with_list.xlsx
+++ b/day1/excel_with_list.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Hight</t>
+    <t>Height</t>
   </si>
   <si>
     <t>Aditya</t>
@@ -28,10 +28,7 @@
     <t>Sameer</t>
   </si>
   <si>
-    <t>Darwin</t>
-  </si>
-  <si>
-    <t>Joel</t>
+    <t>Daarwin</t>
   </si>
 </sst>
 </file>
@@ -389,85 +386,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="E2" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="B2">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="E3" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="F3">
+      <c r="B3">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="F4">
+      <c r="B4">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>179</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
         <v>167</v>
       </c>
     </row>
